--- a/EnglishGame/bin/Debug/rank.xlsx
+++ b/EnglishGame/bin/Debug/rank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PERSONAL\C#\CSharp-Practice\EnglishGame\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145797DE-46F0-4DF5-A7B1-E05B3F0D272F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8AD8B9-F161-423E-A749-F95C6B77B3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>name</t>
   </si>
@@ -44,25 +44,34 @@
     <t>animal</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5/27/2022 12:43:22 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5/27/2022 12:52:53 AM</t>
-  </si>
-  <si>
     <t>vehicle</t>
   </si>
   <si>
     <t xml:space="preserve"> 5/27/2022 12:55:40 AM</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5/27/2022 12:56:29 AM</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 5/27/2022 12:58:59 AM</t>
   </si>
   <si>
     <t xml:space="preserve"> 5/27/2022 1:00:18 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5/27/2022 1:37:16 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5/27/2022 1:40:40 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5/27/2022 1:52:43 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5/27/2022 2:34:22 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5/27/2022 2:36:57 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5/27/2022 2:38:29 AM</t>
   </si>
 </sst>
 </file>
@@ -396,7 +405,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -422,10 +431,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -435,12 +444,29 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8"/>
-  <sheetData/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -471,24 +497,58 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8"/>
-  <sheetData/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8"/>
-  <sheetData/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -514,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -540,10 +600,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -572,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -601,7 +661,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/EnglishGame/bin/Debug/rank.xlsx
+++ b/EnglishGame/bin/Debug/rank.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PERSONAL\C#\CSharp-Practice\EnglishGame\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8AD8B9-F161-423E-A749-F95C6B77B3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16E6D33-5329-4AEA-8DEA-017BAF1608F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>name</t>
   </si>
@@ -50,9 +50,6 @@
     <t xml:space="preserve"> 5/27/2022 12:55:40 AM</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5/27/2022 12:58:59 AM</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 5/27/2022 1:00:18 AM</t>
   </si>
   <si>
@@ -65,13 +62,19 @@
     <t xml:space="preserve"> 5/27/2022 1:52:43 AM</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5/27/2022 2:34:22 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5/27/2022 2:36:57 AM</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 5/27/2022 2:38:29 AM</t>
+  </si>
+  <si>
+    <t>cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5/27/2022 9:04:47 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5/27/2022 9:16:31 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5/27/2022 9:17:49 AM</t>
   </si>
 </sst>
 </file>
@@ -405,7 +408,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -431,10 +434,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -463,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -516,7 +519,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -545,7 +548,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -574,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -629,10 +632,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -658,10 +661,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
